--- a/PRY3211_Exp2_S6_formato_de_respuesta_Definition_Of_Done_Vistas_de_DiseñoE2_SUMATIVA2.xlsx
+++ b/PRY3211_Exp2_S6_formato_de_respuesta_Definition_Of_Done_Vistas_de_DiseñoE2_SUMATIVA2.xlsx
@@ -1,33 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negre\OneDrive\Escritorio\Ingenieriasoftware\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7530"/>
-  </bookViews>
   <sheets>
-    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Resultados" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="Checklist" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Resultados" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Artefacto1">Checklist!$D$2</definedName>
     <definedName name="Artefacto10">Checklist!#REF!</definedName>
-    <definedName name="Artefacto11">Checklist!$D$10</definedName>
-    <definedName name="Artefacto12">Checklist!$D$11</definedName>
-    <definedName name="Artefacto13">Checklist!$D$12</definedName>
-    <definedName name="Artefacto2">Checklist!$D$3</definedName>
-    <definedName name="Artefacto3">Checklist!$D$4</definedName>
-    <definedName name="Artefacto4">Checklist!$D$5</definedName>
-    <definedName name="Artefacto5">Checklist!$D$6</definedName>
-    <definedName name="Artefacto6">Checklist!$D$7</definedName>
-    <definedName name="Artefacto7">Checklist!$D$8</definedName>
-    <definedName name="Artefacto8">Checklist!$D$9</definedName>
     <definedName name="Artefacto9">Checklist!#REF!</definedName>
     <definedName name="Eventos1">Checklist!#REF!</definedName>
     <definedName name="Eventos10">Checklist!#REF!</definedName>
@@ -70,9 +50,6 @@
     <definedName name="Eventos7">Checklist!#REF!</definedName>
     <definedName name="Eventos8">Checklist!#REF!</definedName>
     <definedName name="Eventos9">Checklist!#REF!</definedName>
-    <definedName name="MediaArtefacto1">Checklist!$I$3</definedName>
-    <definedName name="MediaArtefacto2">Checklist!$I$4</definedName>
-    <definedName name="MediaArtefacto3">Checklist!$I$5</definedName>
     <definedName name="MediaEvento1">Checklist!#REF!</definedName>
     <definedName name="MediaEvento2">Checklist!#REF!</definedName>
     <definedName name="MediaEvento3">Checklist!#REF!</definedName>
@@ -128,32 +105,35 @@
     <definedName name="Roles7">Checklist!#REF!</definedName>
     <definedName name="Roles8">Checklist!#REF!</definedName>
     <definedName name="Roles9">Checklist!#REF!</definedName>
-    <definedName name="TotalArtefactos">Checklist!$I$7</definedName>
     <definedName name="TotalEventos">Checklist!#REF!</definedName>
     <definedName name="TotalRoles">Checklist!#REF!</definedName>
+    <definedName name="Artefacto4">Checklist!$D$5</definedName>
+    <definedName name="MediaArtefacto3">Checklist!$I$5</definedName>
+    <definedName name="Artefacto2">Checklist!$D$3</definedName>
+    <definedName name="MediaArtefacto1">Checklist!$I$3</definedName>
+    <definedName name="Artefacto7">Checklist!$D$8</definedName>
+    <definedName name="Artefacto3">Checklist!$D$4</definedName>
+    <definedName name="MediaArtefacto2">Checklist!$I$4</definedName>
+    <definedName name="Artefacto8">Checklist!$D$9</definedName>
+    <definedName name="TotalArtefactos">Checklist!$I$7</definedName>
+    <definedName name="Artefacto6">Checklist!$D$7</definedName>
+    <definedName name="Artefacto1">Checklist!$D$2</definedName>
+    <definedName name="Artefacto13">Checklist!$D$12</definedName>
+    <definedName name="Artefacto12">Checklist!$D$11</definedName>
+    <definedName name="Artefacto5">Checklist!$D$6</definedName>
+    <definedName name="Artefacto11">Checklist!$D$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mglU72IUCS/LXdL4PDaYmlhOdrNlg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Fu1t8sODFZBS/md7TH/tItlDKwFEweHg+ibZaW4EMJ0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>DEFINICION DEL  DOD</t>
   </si>
@@ -165,6 +145,9 @@
   </si>
   <si>
     <t>COMPONENTE 1</t>
+  </si>
+  <si>
+    <t>Vista principal cliente carga en menos de 3 segundos</t>
   </si>
   <si>
     <t>Valor 0</t>
@@ -179,6 +162,9 @@
     <t>Valor 3</t>
   </si>
   <si>
+    <t>Buscador de habitaciones funciona con filtros de fecha</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
@@ -191,40 +177,28 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>Navegación intuitiva entre todas las secciones</t>
+  </si>
+  <si>
     <t>COMPONENTE 2</t>
+  </si>
+  <si>
+    <t>Diseño responsive en móvil y desktop</t>
   </si>
   <si>
     <t>COMPONENTE 3</t>
   </si>
   <si>
+    <t>Proceso de reserva completo en máximo 5 pasos</t>
+  </si>
+  <si>
     <t>COMPONENTE 4</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Validación de fechas disponibles en tiempo real</t>
   </si>
   <si>
-    <t>COMPONENTE 5</t>
-  </si>
-  <si>
-    <t>Porcentaje de Scrum</t>
-  </si>
-  <si>
-    <t>Vista principal cliente carga en menos de 3 segundos</t>
-  </si>
-  <si>
-    <t>Buscador de habitaciones funciona con filtros de fecha</t>
-  </si>
-  <si>
-    <t>Navegación intuitiva entre todas las secciones</t>
-  </si>
-  <si>
-    <t>Diseño responsive en móvil y desktop</t>
-  </si>
-  <si>
-    <t>Proceso de reserva completo en máximo 5 pasos</t>
-  </si>
-  <si>
-    <t>Validación de fechas disponibles en tiempo real</t>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>Cálculo automático de precios correcto</t>
@@ -251,87 +225,71 @@
     <t>Código sin errores críticos identificados</t>
   </si>
   <si>
+    <t>Pruebas de usabilidad completadas exitosamente</t>
+  </si>
+  <si>
     <t>Documentación técnica actualizada en repositorio</t>
   </si>
   <si>
-    <t>Pruebas de usabilidad completadas exitosamente</t>
+    <t>Porcentaje de Scrum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="10">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="50"/>
+      <sz val="50.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -339,7 +297,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -402,13 +360,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -417,7 +375,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -427,8 +396,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -440,8 +407,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -456,34 +421,27 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -493,7 +451,12 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -502,9 +465,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -513,177 +473,213 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <top/>
+    </border>
+    <border>
+      <top/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left/>
+    </border>
+    <border>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <bottom/>
+    </border>
+    <border>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="43">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" textRotation="255" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="255" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="255" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="6" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="14" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="11" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9E2F3"/>
           <bgColor rgb="FFD9E2F3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E2F3"/>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Checklist-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle count="3" pivot="0" name="Checklist-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Checklist!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -698,58 +694,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Checklist!$F$3:$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>COMPONENTE 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>COMPONENTE 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>COMPONENTE 3</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f>Checklist!$F$3:$F$6</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Checklist!$I$3:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Checklist!$I$3:$I$6</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BEB-46C6-98D9-58431B05DB55}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-472887888"/>
-        <c:axId val="-472881360"/>
+        <c:axId val="627346441"/>
+        <c:axId val="1787297550"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-472887888"/>
+        <c:axId val="627346441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,17 +729,24 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CL"/>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -792,18 +759,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472881360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:crossAx val="1787297550"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472881360"/>
+        <c:axId val="1787297550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,14 +804,21 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CL"/>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -869,28 +837,18 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472887888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossAx val="627346441"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -901,17 +859,11 @@
     <xdr:ext cx="4857750" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" descr="Texto&#10;&#10;Descripción generada automáticamente con confianza media">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr descr="Texto&#10;&#10;Descripción generada automáticamente con confianza media" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -929,7 +881,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -938,15 +890,9 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5619750" cy="4419600"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="247145249" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002123BB0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="247145249" name="Chart 1" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -955,7 +901,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -964,26 +910,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1638300" cy="276225"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:ext cx="1647825" cy="285750"/>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4393500" y="3646650"/>
-          <a:ext cx="1905000" cy="266700"/>
+          <a:off x="4526850" y="3641888"/>
+          <a:ext cx="1638300" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,22 +934,27 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="dk1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr b="1" lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1030,17 +975,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="C1:D13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="C1:D13" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="2">
-    <tableColumn id="1" name="DEFINICION DEL  DOD"/>
-    <tableColumn id="2" name="VALOR"/>
+    <tableColumn name="DEFINICION DEL  DOD" id="1"/>
+    <tableColumn name="VALOR" id="2"/>
   </tableColumns>
-  <tableStyleInfo name="Checklist-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Checklist-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1230,436 +1175,433 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="26" width="10.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="10.71"/>
+    <col customWidth="1" min="3" max="3" width="74.43"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="5" width="18.29"/>
+    <col customWidth="1" min="7" max="7" width="10.71"/>
+    <col customWidth="1" min="8" max="8" width="15.29"/>
+    <col customWidth="1" min="9" max="9" width="11.86"/>
+    <col customWidth="1" min="10" max="12" width="10.71"/>
+    <col customWidth="1" min="13" max="13" width="14.29"/>
+    <col customWidth="1" min="14" max="14" width="10.14"/>
+    <col customWidth="1" min="15" max="26" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.25" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" ht="38.25" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="27.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="L2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="51.75" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="17">
+        <f>SUM(D2:D5)/12</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="26.25" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="17">
+        <f>SUM(D6:D9)/12</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5" ht="51.75" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="17">
+        <f>SUM(D10,D13)/6</f>
+        <v>0.6666666667</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="L2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="51.75" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="31" t="s">
+      <c r="D6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="6">
-        <f>SUM(D2:D5)/12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="31" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="17">
+        <f>SUM(D14,D17)/6</f>
+        <v>0.6666666667</v>
+      </c>
+    </row>
+    <row r="7" ht="41.25" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="6">
-        <f>SUM(D6:D9)/12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2</v>
-      </c>
-      <c r="O4" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="51.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="31" t="s">
+      <c r="D7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="6">
-        <f>SUM(D10,D13)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="45" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="17">
+        <f>AVERAGE(I3:I6)</f>
+        <v>0.6666666667</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="6">
-        <f>SUM(D14,D17)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="41.25" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="31" t="s">
+      <c r="D8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="30.75" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="6">
-        <f>SUM(MediaArtefacto1:MediaArtefacto3)/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="31" t="s">
+      <c r="D9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="41.25" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="31" t="s">
+      <c r="D10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="47.25" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="41.25" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="D11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="47.25" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="31" t="s">
+      <c r="D12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" ht="50.25" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="31" t="s">
+      <c r="D13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" ht="40.5" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="50.25" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="31" t="s">
+      <c r="D14" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" ht="27.75" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="40.5" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="D15" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" ht="36.75" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="31" t="s">
+      <c r="D16" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" ht="64.5" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="36.75" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="29"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="30"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="30"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="30"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="30"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="30"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="30"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="29"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="30"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="30"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34" s="30"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="29"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36" s="30"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37" s="30"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="30"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39" s="30"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1"/>
+      <c r="D17" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="31"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="31"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="28"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="31"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="31"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="31"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="31"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="31"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="31"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="31"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="31"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="28"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="31"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="31"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="31"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="31"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2626,14 +2568,15 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B6:B9"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D17">
       <formula1>$L$4:$O$4</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
@@ -2641,54 +2584,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="52" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" width="10.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="26" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="27">
+    <row r="1">
+      <c r="A1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="35">
         <f>Checklist!I7</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+        <v>0.6666666667</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="38"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="38"/>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="38"/>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -3675,337 +3615,9 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0daa353-f819-43d1-badf-ce69fea8800d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fecha_x0020_de_x0020_creaci_x00f3_n xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
-    <TaxCatchAll xmlns="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d" xsi:nil="true"/>
-    <Fechayhora xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010070BFDEA41A5D8B46AA5DA2E2389CBE4E" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="672700c7c1e39a78a362f54b21ce1efa">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0daa353-f819-43d1-badf-ce69fea8800d" xmlns:ns3="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3db37e5c6f54565a9911855e2c96e577" ns2:_="" ns3:_="">
-    <xsd:import namespace="d0daa353-f819-43d1-badf-ce69fea8800d"/>
-    <xsd:import namespace="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:Fechayhora" minOccurs="0"/>
-                <xsd:element ref="ns2:Fecha_x0020_de_x0020_creaci_x00f3_n" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d0daa353-f819-43d1-badf-ce69fea8800d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Fechayhora" ma:index="20" nillable="true" ma:displayName="Fecha y hora" ma:format="DateTime" ma:internalName="Fechayhora">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Fecha_x0020_de_x0020_creaci_x00f3_n" ma:index="21" nillable="true" ma:displayName="Fecha de creación" ma:format="DateTime" ma:internalName="Fecha_x0020_de_x0020_creaci_x00f3_n">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e2f773bf-f00b-42a6-8b07-050935be226b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9beb23f2-04a0-4483-9f40-448d491ccbe9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CD51195-12DE-4B0C-BEB4-16018FC7E2F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d0daa353-f819-43d1-badf-ce69fea8800d"/>
-    <ds:schemaRef ds:uri="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA387EC-F6D6-4C39-850A-38D5ECF4D0D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E14E2735-EA1A-44BF-9884-36133875E543}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d0daa353-f819-43d1-badf-ce69fea8800d"/>
-    <ds:schemaRef ds:uri="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>